--- a/biology/Zoologie/Agapanthia_villosoviridescens/Agapanthia_villosoviridescens.xlsx
+++ b/biology/Zoologie/Agapanthia_villosoviridescens/Agapanthia_villosoviridescens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L’agapanthie à pilosité verdâtre ou saperde à pilosité verdâtre (Agapanthia villosoviridescens) est une espèce de coléoptères de la famille des cérambycidés[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’agapanthie à pilosité verdâtre ou saperde à pilosité verdâtre (Agapanthia villosoviridescens) est une espèce de coléoptères de la famille des cérambycidés,.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sa taille varie entre 10 et 23 mm. On le trouve de mai à septembre[3]. Il se caractérise par la présence de poils de couleur ocre verdâtre sur les élytres et tout le corps. Ses très longues antennes, de la taille de son corps, sont noires et blanches. On trouve des bandes longitudinales noires et jaunes sur sa tête et son pronotum[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sa taille varie entre 10 et 23 mm. On le trouve de mai à septembre. Il se caractérise par la présence de poils de couleur ocre verdâtre sur les élytres et tout le corps. Ses très longues antennes, de la taille de son corps, sont noires et blanches. On trouve des bandes longitudinales noires et jaunes sur sa tête et son pronotum.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Sa larve est polyphage. Elle se nourrit des sommités fleuries d'astéracées (composées) dont de cirses, d'apiacées (ombellifères) et d'orties (Urtica dioica).
 </t>
@@ -573,9 +589,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Albanie, Allemagne, Angleterre, Autriche, Belgique, Bosnie-Herzégovine, Bulgarie, Corse, Crimée, Croatie, Danemark, Espagne, Estonie, Finlande, France, Grèce, Hongrie, Italie, Kazakhstan, Lettonie, Lituanie, Luxembourg, Macédoine, Moldavie, Norvège, Nouvelle-Guinée, Pays-Bas, Pologne, Portugal, Roumanie, Russie d'Europe, Sicile, Slovaquie, Slovénie, Suède, Suisse, Tchéquie, Turquie, Ukraine, Yougoslavie[4]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Albanie, Allemagne, Angleterre, Autriche, Belgique, Bosnie-Herzégovine, Bulgarie, Corse, Crimée, Croatie, Danemark, Espagne, Estonie, Finlande, France, Grèce, Hongrie, Italie, Kazakhstan, Lettonie, Lituanie, Luxembourg, Macédoine, Moldavie, Norvège, Nouvelle-Guinée, Pays-Bas, Pologne, Portugal, Roumanie, Russie d'Europe, Sicile, Slovaquie, Slovénie, Suède, Suisse, Tchéquie, Turquie, Ukraine, Yougoslavie
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On trouve l'Agapanthie à pilosité verdâtre à la lisière des forêts et des chemins forestiers[3] et il fréquente aussi les prairies et buissons généralement humides. 
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On trouve l'Agapanthie à pilosité verdâtre à la lisière des forêts et des chemins forestiers et il fréquente aussi les prairies et buissons généralement humides. 
 </t>
         </is>
       </c>
@@ -635,21 +655,23 @@
           <t>Synonymie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Agapanthia acutipennis Mulsant, 1862[5]
-Agapanthia angusticollis (Gyllenhal, 1817)[5]
-Agapanthia lineatocollis (Donovan, 1797)[5]
-Cerambyx (Stenocorus) viridescens Gmelin, 1790[5]
-Cerambyx lineatocollis Donovan, 1797[5]
-Cerambyx villosoviridescens DeGeer, 1775[5]
-Cerambyx virens Voet, 1778 nec Linnaeus, 1758[5]
-Saperda angusticollis Gyllenhal in Schönherr, 1817[5]
-Saperda latreillei Fisher, 1806[5]
-Stenocorus viridescens (Gmelin, 1790)[5]
-Agapanthia pyrenæa Brisout, 1863[4]
-Cerambyx viridescens Gmelin, 1790[4]
-Saperda latreillei Fischer-Waldheim, 1806[4]</t>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Agapanthia acutipennis Mulsant, 1862
+Agapanthia angusticollis (Gyllenhal, 1817)
+Agapanthia lineatocollis (Donovan, 1797)
+Cerambyx (Stenocorus) viridescens Gmelin, 1790
+Cerambyx lineatocollis Donovan, 1797
+Cerambyx villosoviridescens DeGeer, 1775
+Cerambyx virens Voet, 1778 nec Linnaeus, 1758
+Saperda angusticollis Gyllenhal in Schönherr, 1817
+Saperda latreillei Fisher, 1806
+Stenocorus viridescens (Gmelin, 1790)
+Agapanthia pyrenæa Brisout, 1863
+Cerambyx viridescens Gmelin, 1790
+Saperda latreillei Fischer-Waldheim, 1806</t>
         </is>
       </c>
     </row>
